--- a/Relazione/schema_relazionaleNoArrow.xlsx
+++ b/Relazione/schema_relazionaleNoArrow.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damia\Desktop\Università\Primo Anno Magistrale\Basi di Dati\progettoBasiDiDati\Relazione\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abertagnon/Documents/Università/Magistrale/ANNO_1/BasiDiDati/progettoBasiDiDati/Relazione/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{BDFE7E85-4550-374A-B61E-33AFACDC1E5D}"/>
+    <workbookView xWindow="860" yWindow="440" windowWidth="37540" windowHeight="21160" xr2:uid="{BDFE7E85-4550-374A-B61E-33AFACDC1E5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -101,12 +101,6 @@
     <t xml:space="preserve">nome </t>
   </si>
   <si>
-    <t>PERMESSI</t>
-  </si>
-  <si>
-    <t>PERMESSI_UTENTE</t>
-  </si>
-  <si>
     <t>idUtente</t>
   </si>
   <si>
@@ -168,13 +162,19 @@
   </si>
   <si>
     <t>idPermesso</t>
+  </si>
+  <si>
+    <t>PERMESSO</t>
+  </si>
+  <si>
+    <t>PERMESSO_UTENTE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -369,38 +369,38 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -424,13 +424,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>803895</xdr:colOff>
+      <xdr:colOff>825792</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>296333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>143934</xdr:colOff>
+      <xdr:colOff>165831</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>93133</xdr:rowOff>
     </xdr:to>
@@ -447,8 +447,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10760695" y="18177933"/>
-          <a:ext cx="169772" cy="541867"/>
+          <a:off x="11073378" y="296333"/>
+          <a:ext cx="194005" cy="526685"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1086,27 +1086,27 @@
   </sheetPr>
   <dimension ref="A1:N106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="174" zoomScaleNormal="174" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="28.95" customHeight="1" thickBot="1">
-      <c r="B1" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-    </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" ht="28.95" customHeight="1" thickBot="1">
+    <row r="1" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+    </row>
+    <row r="2" spans="1:14" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
@@ -1114,153 +1114,153 @@
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="H2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="20"/>
+      <c r="J2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="K2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="10" t="s">
+      <c r="L2" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="N2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="28.95" customHeight="1" thickBot="1"/>
-    <row r="4" spans="1:14" s="4" customFormat="1" ht="28.95" customHeight="1" thickBot="1">
+    <row r="3" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:14" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11" t="s">
+      <c r="H4" s="13"/>
+      <c r="I4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11" t="s">
+      <c r="J4" s="13"/>
+      <c r="K4" s="13" t="s">
         <v>7</v>
       </c>
       <c r="L4" s="14"/>
     </row>
-    <row r="5" spans="1:14" ht="28.95" customHeight="1"/>
-    <row r="6" spans="1:14" ht="28.95" customHeight="1"/>
-    <row r="7" spans="1:14" s="2" customFormat="1" ht="28.95" customHeight="1" thickBot="1">
-      <c r="B7" s="21" t="s">
+    <row r="5" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:14" s="2" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" ht="28.95" customHeight="1" thickBot="1">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11" t="s">
+      <c r="G8" s="13"/>
+      <c r="H8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11" t="s">
+      <c r="I8" s="13"/>
+      <c r="J8" s="13" t="s">
         <v>7</v>
       </c>
       <c r="K8" s="14"/>
     </row>
-    <row r="9" spans="1:14" ht="28.95" customHeight="1"/>
-    <row r="10" spans="1:14" ht="28.95" customHeight="1"/>
-    <row r="11" spans="1:14" ht="28.95" customHeight="1" thickBot="1">
-      <c r="B11" s="15" t="s">
+    <row r="9" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="1:14" ht="28.95" customHeight="1" thickBot="1">
-      <c r="B12" s="16" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17" t="s">
+      <c r="C12" s="16"/>
+      <c r="D12" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="11" t="s">
+      <c r="E12" s="16"/>
+      <c r="F12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11" t="s">
+      <c r="G12" s="13"/>
+      <c r="H12" s="13" t="s">
         <v>7</v>
       </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:14" ht="28.95" customHeight="1"/>
-    <row r="14" spans="1:14" ht="28.95" customHeight="1"/>
-    <row r="15" spans="1:14" ht="28.95" customHeight="1" thickBot="1">
-      <c r="B15" s="15" t="s">
+    <row r="13" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-    </row>
-    <row r="16" spans="1:14" ht="28.95" customHeight="1" thickBot="1">
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>2</v>
       </c>
@@ -1273,457 +1273,448 @@
       <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11" t="s">
+      <c r="G16" s="13"/>
+      <c r="H16" s="13" t="s">
         <v>7</v>
       </c>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="2:14" ht="28.95" customHeight="1"/>
-    <row r="18" spans="2:14" ht="28.95" customHeight="1"/>
-    <row r="19" spans="2:14" ht="28.95" customHeight="1" thickBot="1">
-      <c r="B19" s="15" t="s">
+    <row r="17" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-    </row>
-    <row r="20" spans="2:14" ht="28.95" customHeight="1" thickBot="1">
-      <c r="B20" s="16" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17" t="s">
+      <c r="C20" s="16"/>
+      <c r="D20" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="11" t="s">
+      <c r="E20" s="16"/>
+      <c r="F20" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11" t="s">
+      <c r="G20" s="13"/>
+      <c r="H20" s="13" t="s">
         <v>7</v>
       </c>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="2:14" ht="28.95" customHeight="1"/>
-    <row r="22" spans="2:14" ht="28.95" customHeight="1"/>
-    <row r="23" spans="2:14" ht="28.95" customHeight="1" thickBot="1">
-      <c r="B23" s="15" t="s">
+    <row r="21" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-    </row>
-    <row r="24" spans="2:14" s="4" customFormat="1" ht="28.95" customHeight="1" thickBot="1">
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+    </row>
+    <row r="24" spans="2:14" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="11" t="s">
+      <c r="D24" s="17"/>
+      <c r="E24" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="11"/>
+      <c r="F24" s="13"/>
       <c r="G24" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="I24" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11" t="s">
+      <c r="J24" s="13"/>
+      <c r="K24" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11" t="s">
+      <c r="L24" s="13"/>
+      <c r="M24" s="13" t="s">
         <v>7</v>
       </c>
       <c r="N24" s="14"/>
     </row>
-    <row r="25" spans="2:14" ht="28.95" customHeight="1"/>
-    <row r="26" spans="2:14" ht="28.95" customHeight="1"/>
-    <row r="27" spans="2:14" ht="28.95" customHeight="1" thickBot="1">
-      <c r="B27" s="15" t="s">
+    <row r="25" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-    </row>
-    <row r="28" spans="2:14" s="5" customFormat="1" ht="28.95" customHeight="1" thickBot="1">
-      <c r="B28" s="19" t="s">
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+    </row>
+    <row r="28" spans="2:14" s="5" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20" t="s">
+      <c r="C28" s="19"/>
+      <c r="D28" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="20"/>
+      <c r="E28" s="19"/>
       <c r="F28" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11" t="s">
+      <c r="I28" s="13"/>
+      <c r="J28" s="13" t="s">
         <v>7</v>
       </c>
       <c r="K28" s="14"/>
     </row>
-    <row r="29" spans="2:14" ht="28.95" customHeight="1"/>
-    <row r="30" spans="2:14" ht="28.95" customHeight="1"/>
-    <row r="31" spans="2:14" ht="28.95" customHeight="1" thickBot="1">
-      <c r="B31" s="15" t="s">
+    <row r="29" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-    </row>
-    <row r="32" spans="2:14" s="4" customFormat="1" ht="28.95" customHeight="1" thickBot="1">
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+    </row>
+    <row r="32" spans="2:14" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11" t="s">
+      <c r="E32" s="13"/>
+      <c r="F32" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11" t="s">
+      <c r="G32" s="13"/>
+      <c r="H32" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11" t="s">
+      <c r="I32" s="13"/>
+      <c r="J32" s="13" t="s">
         <v>7</v>
       </c>
       <c r="K32" s="14"/>
     </row>
-    <row r="33" spans="2:13" ht="28.95" customHeight="1"/>
-    <row r="34" spans="2:13" ht="28.95" customHeight="1"/>
-    <row r="35" spans="2:13" ht="28.95" customHeight="1" thickBot="1">
-      <c r="B35" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-    </row>
-    <row r="36" spans="2:13" ht="28.95" customHeight="1" thickBot="1">
+    <row r="33" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+    </row>
+    <row r="36" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11" t="s">
+      <c r="E36" s="13"/>
+      <c r="F36" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11" t="s">
+      <c r="G36" s="13"/>
+      <c r="H36" s="13" t="s">
         <v>7</v>
       </c>
       <c r="I36" s="14"/>
     </row>
-    <row r="37" spans="2:13" ht="28.95" customHeight="1"/>
-    <row r="38" spans="2:13" ht="28.95" customHeight="1"/>
-    <row r="39" spans="2:13" ht="28.95" customHeight="1" thickBot="1">
-      <c r="B39" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-    </row>
-    <row r="40" spans="2:13" ht="28.95" customHeight="1" thickBot="1">
+    <row r="37" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+    </row>
+    <row r="40" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F40" s="18"/>
-      <c r="G40" s="11" t="s">
+      <c r="C40" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="17"/>
+      <c r="G40" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11" t="s">
+      <c r="H40" s="13"/>
+      <c r="I40" s="13" t="s">
         <v>7</v>
       </c>
       <c r="J40" s="14"/>
     </row>
-    <row r="41" spans="2:13" ht="28.95" customHeight="1"/>
-    <row r="42" spans="2:13" ht="28.95" customHeight="1"/>
-    <row r="43" spans="2:13" ht="28.95" customHeight="1" thickBot="1">
-      <c r="B43" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-    </row>
-    <row r="44" spans="2:13" s="4" customFormat="1" ht="28.95" customHeight="1" thickBot="1">
+    <row r="41" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+    </row>
+    <row r="44" spans="2:13" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="18"/>
-      <c r="E44" s="11" t="s">
+      <c r="D44" s="17"/>
+      <c r="E44" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11" t="s">
+      <c r="F44" s="13"/>
+      <c r="G44" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H44" s="11"/>
+      <c r="H44" s="13"/>
       <c r="I44" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J44" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J44" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11" t="s">
+      <c r="K44" s="13"/>
+      <c r="L44" s="13" t="s">
         <v>7</v>
       </c>
       <c r="M44" s="14"/>
     </row>
-    <row r="45" spans="2:13" ht="28.95" customHeight="1"/>
-    <row r="46" spans="2:13" ht="28.95" customHeight="1"/>
-    <row r="47" spans="2:13" ht="28.95" customHeight="1" thickBot="1">
-      <c r="B47" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-    </row>
-    <row r="48" spans="2:13" ht="28.95" customHeight="1" thickBot="1">
+    <row r="45" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+    </row>
+    <row r="48" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="18"/>
-      <c r="E48" s="11" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11" t="s">
+      <c r="F48" s="13"/>
+      <c r="G48" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L48" s="14"/>
+    </row>
+    <row r="49" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="2:11" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+    </row>
+    <row r="52" spans="2:11" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11" t="s">
+      <c r="C52" s="16"/>
+      <c r="D52" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="16"/>
+      <c r="F52" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11" t="s">
+      <c r="G52" s="13"/>
+      <c r="H52" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="L48" s="14"/>
-    </row>
-    <row r="49" spans="2:11" ht="28.95" customHeight="1"/>
-    <row r="50" spans="2:11" ht="28.95" customHeight="1"/>
-    <row r="51" spans="2:11" ht="28.95" customHeight="1" thickBot="1">
-      <c r="B51" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="15"/>
-    </row>
-    <row r="52" spans="2:11" ht="28.95" customHeight="1" thickBot="1">
-      <c r="B52" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="17"/>
-      <c r="F52" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11" t="s">
-        <v>7</v>
-      </c>
       <c r="I52" s="14"/>
     </row>
-    <row r="53" spans="2:11" ht="28.95" customHeight="1"/>
-    <row r="54" spans="2:11" ht="28.95" customHeight="1">
+    <row r="53" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
     </row>
-    <row r="55" spans="2:11" ht="28.95" customHeight="1"/>
-    <row r="56" spans="2:11" ht="28.95" customHeight="1"/>
-    <row r="57" spans="2:11" ht="28.95" customHeight="1"/>
-    <row r="58" spans="2:11" ht="28.95" customHeight="1"/>
-    <row r="59" spans="2:11" ht="28.95" customHeight="1"/>
-    <row r="60" spans="2:11" ht="28.95" customHeight="1"/>
-    <row r="61" spans="2:11" ht="28.95" customHeight="1"/>
-    <row r="62" spans="2:11" ht="28.95" customHeight="1"/>
-    <row r="63" spans="2:11" ht="28.95" customHeight="1"/>
-    <row r="64" spans="2:11" ht="28.95" customHeight="1"/>
-    <row r="65" ht="28.95" customHeight="1"/>
-    <row r="66" ht="28.95" customHeight="1"/>
-    <row r="67" ht="28.95" customHeight="1"/>
-    <row r="68" ht="28.95" customHeight="1"/>
-    <row r="69" ht="28.95" customHeight="1"/>
-    <row r="70" ht="28.95" customHeight="1"/>
-    <row r="71" ht="28.95" customHeight="1"/>
-    <row r="72" ht="28.95" customHeight="1"/>
-    <row r="73" ht="28.95" customHeight="1"/>
-    <row r="74" ht="28.95" customHeight="1"/>
-    <row r="75" ht="28.95" customHeight="1"/>
-    <row r="76" ht="28.95" customHeight="1"/>
-    <row r="77" ht="28.95" customHeight="1"/>
-    <row r="78" ht="28.95" customHeight="1"/>
-    <row r="79" ht="28.95" customHeight="1"/>
-    <row r="80" ht="28.95" customHeight="1"/>
-    <row r="81" ht="28.95" customHeight="1"/>
-    <row r="82" ht="28.95" customHeight="1"/>
-    <row r="83" ht="28.95" customHeight="1"/>
-    <row r="84" ht="28.95" customHeight="1"/>
-    <row r="85" ht="28.95" customHeight="1"/>
-    <row r="86" ht="28.95" customHeight="1"/>
-    <row r="87" ht="28.95" customHeight="1"/>
-    <row r="88" ht="28.95" customHeight="1"/>
-    <row r="89" ht="28.95" customHeight="1"/>
-    <row r="90" ht="28.95" customHeight="1"/>
-    <row r="91" ht="28.95" customHeight="1"/>
-    <row r="92" ht="28.95" customHeight="1"/>
-    <row r="93" ht="28.95" customHeight="1"/>
-    <row r="94" ht="28.95" customHeight="1"/>
-    <row r="95" ht="28.95" customHeight="1"/>
-    <row r="96" ht="28.95" customHeight="1"/>
-    <row r="97" ht="28.95" customHeight="1"/>
-    <row r="98" ht="28.95" customHeight="1"/>
-    <row r="99" ht="28.95" customHeight="1"/>
-    <row r="100" ht="28.95" customHeight="1"/>
-    <row r="101" ht="28.95" customHeight="1"/>
-    <row r="102" ht="28.95" customHeight="1"/>
-    <row r="103" ht="28.95" customHeight="1"/>
-    <row r="104" ht="28.95" customHeight="1"/>
-    <row r="105" ht="28.95" customHeight="1"/>
-    <row r="106" ht="28.95" customHeight="1"/>
+    <row r="55" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B23:K23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B51:K51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="B39:K39"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="B47:K47"/>
@@ -1740,27 +1731,36 @@
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="G44:H44"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="B51:K51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="B35:K35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="B39:K39"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="51" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Relazione/schema_relazionaleNoArrow.xlsx
+++ b/Relazione/schema_relazionaleNoArrow.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="49">
   <si>
     <t>FARMACO</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>PERMESSO_UTENTE</t>
+  </si>
+  <si>
+    <t>idSala</t>
   </si>
 </sst>
 </file>
@@ -251,7 +254,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -337,11 +340,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -369,6 +411,30 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -397,9 +463,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1084,27 +1147,27 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N106"/>
+  <dimension ref="A1:P106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="174" zoomScaleNormal="174" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="174" zoomScaleNormal="174" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
@@ -1116,17 +1179,17 @@
       <c r="D2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="21"/>
       <c r="G2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="20"/>
+      <c r="I2" s="28"/>
       <c r="J2" s="10" t="s">
         <v>37</v>
       </c>
@@ -1144,10 +1207,10 @@
     <row r="3" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:14" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="3" t="s">
         <v>41</v>
       </c>
@@ -1157,108 +1220,108 @@
       <c r="F4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13" t="s">
+      <c r="H4" s="21"/>
+      <c r="I4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13" t="s">
+      <c r="J4" s="21"/>
+      <c r="K4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="14"/>
+      <c r="L4" s="22"/>
     </row>
     <row r="5" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:14" s="2" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13" t="s">
+      <c r="G8" s="21"/>
+      <c r="H8" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13" t="s">
+      <c r="I8" s="21"/>
+      <c r="J8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="14"/>
+      <c r="K8" s="22"/>
     </row>
     <row r="9" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
     </row>
     <row r="12" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16" t="s">
+      <c r="C12" s="24"/>
+      <c r="D12" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="13" t="s">
+      <c r="E12" s="24"/>
+      <c r="F12" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13" t="s">
+      <c r="G12" s="21"/>
+      <c r="H12" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="14"/>
+      <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
@@ -1273,191 +1336,195 @@
       <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13" t="s">
+      <c r="G16" s="21"/>
+      <c r="H16" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="s">
+      <c r="I16" s="22"/>
+    </row>
+    <row r="17" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="2:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-    </row>
-    <row r="20" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="15" t="s">
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+    </row>
+    <row r="20" spans="2:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16" t="s">
+      <c r="C20" s="24"/>
+      <c r="D20" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="13" t="s">
+      <c r="E20" s="24"/>
+      <c r="F20" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13" t="s">
+      <c r="G20" s="21"/>
+      <c r="H20" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="14"/>
-    </row>
-    <row r="21" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="12" t="s">
+      <c r="I20" s="22"/>
+    </row>
+    <row r="21" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="2:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-    </row>
-    <row r="24" spans="2:14" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+    </row>
+    <row r="24" spans="2:16" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="13" t="s">
+      <c r="D24" s="15"/>
+      <c r="E24" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="21"/>
+      <c r="I24" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="J24" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="13" t="s">
+      <c r="K24" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13" t="s">
+      <c r="L24" s="17"/>
+      <c r="M24" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13" t="s">
+      <c r="N24" s="17"/>
+      <c r="O24" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="N24" s="14"/>
-    </row>
-    <row r="25" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="12" t="s">
+      <c r="P24" s="18"/>
+    </row>
+    <row r="25" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-    </row>
-    <row r="28" spans="2:14" s="5" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="18" t="s">
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+    </row>
+    <row r="28" spans="2:16" s="5" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19" t="s">
+      <c r="C28" s="27"/>
+      <c r="D28" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="19"/>
+      <c r="E28" s="27"/>
       <c r="F28" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="H28" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13" t="s">
+      <c r="I28" s="21"/>
+      <c r="J28" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="K28" s="14"/>
-    </row>
-    <row r="29" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="12" t="s">
+      <c r="K28" s="22"/>
+    </row>
+    <row r="29" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-    </row>
-    <row r="32" spans="2:14" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+    </row>
+    <row r="32" spans="2:16" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13" t="s">
+      <c r="E32" s="21"/>
+      <c r="F32" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13" t="s">
+      <c r="G32" s="21"/>
+      <c r="H32" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13" t="s">
+      <c r="I32" s="21"/>
+      <c r="J32" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="K32" s="14"/>
+      <c r="K32" s="22"/>
     </row>
     <row r="33" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
     </row>
     <row r="36" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
@@ -1466,174 +1533,171 @@
       <c r="C36" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13" t="s">
+      <c r="E36" s="21"/>
+      <c r="F36" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13" t="s">
+      <c r="G36" s="21"/>
+      <c r="H36" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I36" s="14"/>
+      <c r="I36" s="22"/>
     </row>
     <row r="37" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="39" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
     </row>
     <row r="40" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="17" t="s">
+      <c r="B40" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17" t="s">
+      <c r="C40" s="14"/>
+      <c r="D40" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F40" s="17"/>
-      <c r="G40" s="13" t="s">
+      <c r="E40" s="14"/>
+      <c r="F40" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13" t="s">
+      <c r="G40" s="17"/>
+      <c r="H40" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="J40" s="14"/>
+      <c r="I40" s="18"/>
     </row>
     <row r="41" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
     </row>
     <row r="44" spans="2:13" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="13" t="s">
+      <c r="D44" s="25"/>
+      <c r="E44" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13" t="s">
+      <c r="F44" s="21"/>
+      <c r="G44" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="H44" s="13"/>
+      <c r="H44" s="21"/>
       <c r="I44" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J44" s="13" t="s">
+      <c r="J44" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13" t="s">
+      <c r="K44" s="21"/>
+      <c r="L44" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="M44" s="14"/>
+      <c r="M44" s="22"/>
     </row>
     <row r="45" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="47" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
     </row>
     <row r="48" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="13" t="s">
+      <c r="D48" s="25"/>
+      <c r="E48" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13" t="s">
+      <c r="F48" s="21"/>
+      <c r="G48" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13" t="s">
+      <c r="H48" s="21"/>
+      <c r="I48" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13" t="s">
+      <c r="J48" s="21"/>
+      <c r="K48" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="L48" s="14"/>
+      <c r="L48" s="22"/>
     </row>
     <row r="49" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" spans="2:11" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
     </row>
     <row r="52" spans="2:11" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16" t="s">
+      <c r="C52" s="24"/>
+      <c r="D52" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="16"/>
-      <c r="F52" s="13" t="s">
+      <c r="E52" s="24"/>
+      <c r="F52" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13" t="s">
+      <c r="G52" s="21"/>
+      <c r="H52" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I52" s="14"/>
+      <c r="I52" s="22"/>
     </row>
     <row r="53" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="54" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -1693,21 +1757,13 @@
     <row r="105" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="106" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="68">
+    <mergeCell ref="O24:P24"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="B51:K51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="B35:K35"/>
-    <mergeCell ref="D36:E36"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="H36:I36"/>
     <mergeCell ref="B39:K39"/>
@@ -1715,6 +1771,11 @@
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="H32:I32"/>
     <mergeCell ref="J32:K32"/>
+    <mergeCell ref="B51:K51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="B47:K47"/>
@@ -1723,14 +1784,14 @@
     <mergeCell ref="G48:H48"/>
     <mergeCell ref="I48:J48"/>
     <mergeCell ref="K48:L48"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
     <mergeCell ref="B43:K43"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="G44:H44"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="D36:E36"/>
     <mergeCell ref="M24:N24"/>
     <mergeCell ref="B27:K27"/>
     <mergeCell ref="B31:K31"/>
@@ -1738,18 +1799,21 @@
     <mergeCell ref="H28:I28"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G24:H24"/>
     <mergeCell ref="B23:K23"/>
-    <mergeCell ref="I24:J24"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="E24:F24"/>
-    <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="B19:K19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B15:K15"/>
     <mergeCell ref="C8:D8"/>
@@ -1761,6 +1825,7 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="H12:I12"/>
+    <mergeCell ref="F16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="51" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Relazione/schema_relazionaleNoArrow.xlsx
+++ b/Relazione/schema_relazionaleNoArrow.xlsx
@@ -383,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -417,52 +417,58 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1149,25 +1155,25 @@
   </sheetPr>
   <dimension ref="A1:P106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="174" zoomScaleNormal="174" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="174" zoomScaleNormal="174" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
@@ -1179,17 +1185,17 @@
       <c r="D2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="15"/>
       <c r="G2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="28"/>
+      <c r="I2" s="16"/>
       <c r="J2" s="10" t="s">
         <v>37</v>
       </c>
@@ -1210,7 +1216,7 @@
       <c r="B4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="3" t="s">
         <v>41</v>
       </c>
@@ -1220,108 +1226,108 @@
       <c r="F4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21" t="s">
+      <c r="H4" s="15"/>
+      <c r="I4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21" t="s">
+      <c r="J4" s="15"/>
+      <c r="K4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="22"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:14" s="2" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="21"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21" t="s">
+      <c r="G8" s="15"/>
+      <c r="H8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21" t="s">
+      <c r="I8" s="15"/>
+      <c r="J8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="22"/>
+      <c r="K8" s="18"/>
     </row>
     <row r="9" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
     </row>
     <row r="12" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24" t="s">
+      <c r="C12" s="21"/>
+      <c r="D12" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="21" t="s">
+      <c r="E12" s="21"/>
+      <c r="F12" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21" t="s">
+      <c r="G12" s="15"/>
+      <c r="H12" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="22"/>
+      <c r="I12" s="18"/>
     </row>
     <row r="13" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
     </row>
     <row r="16" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
@@ -1336,155 +1342,155 @@
       <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21" t="s">
+      <c r="G16" s="15"/>
+      <c r="H16" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="22"/>
+      <c r="I16" s="18"/>
     </row>
     <row r="17" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="2:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
     </row>
     <row r="20" spans="2:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24" t="s">
+      <c r="C20" s="21"/>
+      <c r="D20" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="21" t="s">
+      <c r="E20" s="21"/>
+      <c r="F20" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21" t="s">
+      <c r="G20" s="15"/>
+      <c r="H20" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="22"/>
+      <c r="I20" s="18"/>
     </row>
     <row r="21" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="2:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
     </row>
     <row r="24" spans="2:16" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15" t="s">
+      <c r="D24" s="25"/>
+      <c r="E24" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="14"/>
+      <c r="F24" s="26"/>
       <c r="G24" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="21"/>
+      <c r="H24" s="15"/>
       <c r="I24" s="11" t="s">
         <v>11</v>
       </c>
       <c r="J24" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K24" s="16" t="s">
+      <c r="K24" s="13" t="s">
         <v>20</v>
       </c>
       <c r="L24" s="17"/>
-      <c r="M24" s="16" t="s">
+      <c r="M24" s="13" t="s">
         <v>6</v>
       </c>
       <c r="N24" s="17"/>
-      <c r="O24" s="16" t="s">
+      <c r="O24" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="P24" s="18"/>
+      <c r="P24" s="14"/>
     </row>
     <row r="25" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="2:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
     </row>
     <row r="28" spans="2:16" s="5" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27" t="s">
+      <c r="C28" s="24"/>
+      <c r="D28" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="27"/>
+      <c r="E28" s="24"/>
       <c r="F28" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="21" t="s">
+      <c r="H28" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21" t="s">
+      <c r="I28" s="15"/>
+      <c r="J28" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K28" s="22"/>
+      <c r="K28" s="18"/>
     </row>
     <row r="29" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="2:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
     </row>
     <row r="32" spans="2:16" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
@@ -1493,38 +1499,38 @@
       <c r="C32" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21" t="s">
+      <c r="E32" s="15"/>
+      <c r="F32" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21" t="s">
+      <c r="G32" s="15"/>
+      <c r="H32" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21" t="s">
+      <c r="I32" s="15"/>
+      <c r="J32" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K32" s="22"/>
+      <c r="K32" s="18"/>
     </row>
     <row r="33" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
     </row>
     <row r="36" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
@@ -1533,171 +1539,171 @@
       <c r="C36" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21" t="s">
+      <c r="E36" s="15"/>
+      <c r="F36" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21" t="s">
+      <c r="G36" s="15"/>
+      <c r="H36" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I36" s="22"/>
+      <c r="I36" s="18"/>
     </row>
     <row r="37" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="39" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
     </row>
     <row r="40" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="15" t="s">
+      <c r="C40" s="29"/>
+      <c r="D40" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="16" t="s">
+      <c r="E40" s="29"/>
+      <c r="F40" s="13" t="s">
         <v>6</v>
       </c>
       <c r="G40" s="17"/>
-      <c r="H40" s="16" t="s">
+      <c r="H40" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I40" s="18"/>
+      <c r="I40" s="14"/>
     </row>
     <row r="41" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
     </row>
     <row r="44" spans="2:13" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="25"/>
-      <c r="E44" s="21" t="s">
+      <c r="D44" s="22"/>
+      <c r="E44" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21" t="s">
+      <c r="F44" s="15"/>
+      <c r="G44" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H44" s="21"/>
+      <c r="H44" s="15"/>
       <c r="I44" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J44" s="21" t="s">
+      <c r="J44" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21" t="s">
+      <c r="K44" s="15"/>
+      <c r="L44" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="M44" s="22"/>
+      <c r="M44" s="18"/>
     </row>
     <row r="45" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="47" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
     </row>
     <row r="48" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="21" t="s">
+      <c r="D48" s="22"/>
+      <c r="E48" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21" t="s">
+      <c r="F48" s="15"/>
+      <c r="G48" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21" t="s">
+      <c r="H48" s="15"/>
+      <c r="I48" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21" t="s">
+      <c r="J48" s="15"/>
+      <c r="K48" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="L48" s="22"/>
+      <c r="L48" s="18"/>
     </row>
     <row r="49" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" spans="2:11" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
     </row>
     <row r="52" spans="2:11" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24" t="s">
+      <c r="C52" s="21"/>
+      <c r="D52" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="24"/>
-      <c r="F52" s="21" t="s">
+      <c r="E52" s="21"/>
+      <c r="F52" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21" t="s">
+      <c r="G52" s="15"/>
+      <c r="H52" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I52" s="22"/>
+      <c r="I52" s="18"/>
     </row>
     <row r="53" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="54" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -1758,24 +1764,30 @@
     <row r="106" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="B39:K39"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="B51:K51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="B47:K47"/>
@@ -1792,13 +1804,25 @@
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="B35:K35"/>
     <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B51:K51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="B39:K39"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
     <mergeCell ref="M24:N24"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="D28:E28"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="B23:K23"/>
     <mergeCell ref="K24:L24"/>
@@ -1808,24 +1832,6 @@
     <mergeCell ref="B19:K19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="F16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="51" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
